--- a/src/main/resources/templates/社会体育指导员数据导入模版.xlsx
+++ b/src/main/resources/templates/社会体育指导员数据导入模版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huadi/Documents/汉运动-原图/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huadi/Documents/workspace/personal/hyd-server/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11938EFF-BAC7-1F45-B59C-3161DE22286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8824E298-9F03-FA47-9417-61B702886C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="27940" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="27940" windowHeight="12260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>姓名</t>
   </si>
@@ -63,21 +63,6 @@
     <t>上传时间</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>篮球</t>
-  </si>
-  <si>
-    <t>二级</t>
-  </si>
-  <si>
-    <t>洪山区</t>
-  </si>
-  <si>
     <t>统计年度</t>
   </si>
   <si>
@@ -88,30 +73,6 @@
   </si>
   <si>
     <t>数据来源 / 备注</t>
-  </si>
-  <si>
-    <t>20 岁以下</t>
-  </si>
-  <si>
-    <t>20-30 岁</t>
-  </si>
-  <si>
-    <t>31-40 岁</t>
-  </si>
-  <si>
-    <t>41-50 岁</t>
-  </si>
-  <si>
-    <t>51-60 岁</t>
-  </si>
-  <si>
-    <t>61-70 岁</t>
-  </si>
-  <si>
-    <t>71-80 岁</t>
-  </si>
-  <si>
-    <t>80 岁以上</t>
   </si>
   <si>
     <t>增长率（%）</t>
@@ -159,11 +120,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -479,29 +437,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>29567</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
-        <v>40471</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -510,10 +445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -525,104 +460,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -650,131 +497,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>321</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
         <v>12</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>215</v>
-      </c>
-      <c r="D9">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
